--- a/Ruas_c.xlsx
+++ b/Ruas_c.xlsx
@@ -118,16 +118,16 @@
     <t>Fotossensor</t>
   </si>
   <si>
-    <t>Radisson Hotel Recife, 1906, Avenida Boa Viagem, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51111-000, Brasil</t>
+    <t>Avenida Boa Viagem, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51111-000, Brasil</t>
   </si>
   <si>
     <t>5199, Avenida Marechal Mascarenhas de Moraes, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51150-000, Brasil</t>
   </si>
   <si>
-    <t>Estacionamento Shopping Center Recife, Avenida Dom João VI, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51020-360, Brasil</t>
-  </si>
-  <si>
-    <t>Colégio GGE - Boa Viagem, 20, Rua José da Silva Lucena, Imbiribeira, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51150-430, Brasil</t>
+    <t>Estacionamento Shopping Center Recife, Avenida Dom João VI, Vila Entrapulso, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51020-360, Brasil</t>
+  </si>
+  <si>
+    <t>Colégio GGE - Boa Viagem, 20, Rua José da Silva Lucena, Vila Porcina - Coloral - Lajes, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51150-430, Brasil</t>
   </si>
   <si>
     <t>10017, Avenida Visconde de Jequitinhonha, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51021-190, Brasil</t>
@@ -142,7 +142,7 @@
     <t>4620, Avenida Conselheiro Aguiar, Boa Viagem, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51110-020, Brasil</t>
   </si>
   <si>
-    <t>Avenida Governador Agamenon Magalhães, Vila Rua Berlim, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50070-160, Brasil</t>
+    <t>Universidade de Pernambuco - Campus Santo Amaro, Avenida Governador Agamenon Magalhães, Vila Rua Berlim, Santo Amaro, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50100-010, Brasil</t>
   </si>
   <si>
     <t>180184, Avenida Governador Agamenon Magalhães, Boa Vista, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 52010-903, Brasil</t>
@@ -163,7 +163,7 @@
     <t>Avenida Governador Agamenon Magalhães, Paissandu, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 50070-425, Brasil</t>
   </si>
   <si>
-    <t>Via Mangue - Pista Leste, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51020-142, Brasil</t>
+    <t>Via Mangue - Pista Leste, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51111-040, Brasil</t>
   </si>
   <si>
     <t>483, Avenida Herculano Bandeira, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51110-130, Brasil</t>
@@ -172,13 +172,13 @@
     <t>Avenida Boa Viagem, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51111-000, Brasil</t>
   </si>
   <si>
-    <t>226, Avenida Engenheiro Antônio de Góes, Pina, Brasília Teimosa, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51110-000, Brasil</t>
+    <t>124, Avenida Engenheiro Antônio de Góes, Brasília Teimosa, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51110-000, Brasil</t>
   </si>
   <si>
     <t>Via Mangue - Pista Oeste, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51020-120, Brasil</t>
   </si>
   <si>
-    <t>Via Mangue - Pista Leste, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51011-500, Brasil</t>
+    <t>Via Mangue - Pista Leste, Pina, Recife, Região Geográfica Imediata do Recife, Região Metropolitana do Recife, Região Geográfica Intermediária do Recife, Pernambuco, Região Nordeste, 51011-480, Brasil</t>
   </si>
 </sst>
 </file>
